--- a/uploads/K Nearest Neighbour - Credit Card Transaction Anomaly Detection/K Nearest Neighbour - Credit Card Transaction Anomaly Detection_custom_ml_report.xlsx
+++ b/uploads/K Nearest Neighbour - Credit Card Transaction Anomaly Detection/K Nearest Neighbour - Credit Card Transaction Anomaly Detection_custom_ml_report.xlsx
@@ -15037,7 +15037,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-03T16:22:03.152261</t>
+          <t>2025-07-24T07:13:33.527693</t>
         </is>
       </c>
     </row>
